--- a/parser/test_data/sample1.xlsx
+++ b/parser/test_data/sample1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="toto" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">top</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">right</t>
@@ -42,14 +45,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MMMM\ D&quot;, &quot;YYYY"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,8 +114,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -131,15 +140,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B8:D20"/>
+  <dimension ref="B8:E27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,6 +179,14 @@
       </c>
       <c r="C20" s="0" t="n">
         <v>89</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>43104</v>
       </c>
     </row>
   </sheetData>
@@ -194,12 +213,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45</v>
@@ -210,13 +229,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
